--- a/biology/Botanique/Salix_pellita/Salix_pellita.xlsx
+++ b/biology/Botanique/Salix_pellita/Salix_pellita.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix pellita, le saule satiné (silky willow ou satiny willow en anglais), est une espèce de saule arbustif de la famille des Salicaceae, originaire d'Amérique du Nord.
 </t>
@@ -511,12 +523,14 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Salix chlorophylla var. 'pellita', Anders. ;
 S. obovata ;
 S. seriocarpa ;
-S. sitchensis var. pellita[1].</t>
+S. sitchensis var. pellita.</t>
         </is>
       </c>
     </row>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Salix pellita est un  arbrisseau atteignant 2 à 3 m de haut. Ses rameaux sont rougeâtres et portent des feuilles de  10 à 15 mm de large, couvertes d'une pubescence lustrée, soyeuse, veloutée, sur les deux faces, ou complètement glabres au-dessus. La capsule est densément velue. La floraison est printanière. L'espèce pousse le long des cours d'eau des régions froides, au Canada[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salix pellita est un  arbrisseau atteignant 2 à 3 m de haut. Ses rameaux sont rougeâtres et portent des feuilles de  10 à 15 mm de large, couvertes d'une pubescence lustrée, soyeuse, veloutée, sur les deux faces, ou complètement glabres au-dessus. La capsule est densément velue. La floraison est printanière. L'espèce pousse le long des cours d'eau des régions froides, au Canada.
 </t>
         </is>
       </c>
